--- a/142 - 自定义构造4 - QTE and Trigger System - QTE触发系统.xlsx
+++ b/142 - 自定义构造4 - QTE and Trigger System - QTE触发系统.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="介绍" sheetId="4" r:id="rId1"/>
     <sheet name="Note标签" sheetId="1" r:id="rId2"/>
     <sheet name="插件指令" sheetId="2" r:id="rId3"/>
     <sheet name="插件参数" sheetId="3" r:id="rId4"/>
@@ -2317,7 +2317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="243">
   <si>
     <t>有时，我们需要一种方法来触发开关或变量更改。这可以是一种有机的方式，也可以通过快速时间事件（QTE）。QTE允许通过玩家输入立即更改开关或变量。或者，如果您曾经希望在特定开关或变量将其当前值更改为其他值时运行公共事件，您可以使用此插件的开关、变量、物品、武器和盔甲触发系统，在其值更改时调用并触发公共事件。这些不一定是重复出现的，因为它们也可以作为一次性的“承诺”。</t>
   </si>
@@ -4204,6 +4204,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">是否希望存在默认公共事件？
 以后可以使用插件命令对其进行更改。
 </t>
@@ -4269,6 +4276,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">选择要用于“QTE计时器”的仪表样式。
 </t>
     </r>
@@ -4324,35 +4338,11 @@
 24</t>
   </si>
   <si>
-    <t>Timed Hit Leeway:</t>
-  </si>
-  <si>
-    <t>Timed Hit QTE应该有多少帧的回旋余地？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Overlay Opacity:</t>
-  </si>
-  <si>
-    <t>Timed Hit 覆盖精灵不透明度。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Max Scaling:</t>
-  </si>
-  <si>
-    <t>Timed Hit QTE指示器的最大缩放比例是多少？</t>
-  </si>
-  <si>
-    <t>Timed Sequence Leeway:</t>
-  </si>
-  <si>
-    <t>定时序列QTE应该有多少帧的回旋余地？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sequence Position:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">定时序列着陆图标的位置是什么？
+    <t>Input Buffer Leeway:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">输入缓冲区余地：
 </t>
     </r>
     <r>
@@ -4363,34 +4353,114 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>·应该给按钮序列QTE多少输入缓冲帧的余地？</t>
+    </r>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Timed Hit Leeway:</t>
+  </si>
+  <si>
+    <t>Timed Hit QTE应该有多少帧的回旋余地？</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Overlay Opacity:</t>
+  </si>
+  <si>
+    <t>Timed Hit 覆盖精灵不透明度。</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Max Scaling:</t>
+  </si>
+  <si>
+    <t>Timed Hit QTE指示器的最大缩放比例是多少？</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Timed Sequence Leeway:</t>
+  </si>
+  <si>
+    <t>定时序列QTE应该有多少帧的回旋余地？</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sequence Position:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">定时序列着陆图标的位置是什么？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请使用0到100之间的数字。</t>
     </r>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>QTE Timing Bar Width:</t>
   </si>
   <si>
     <t>时间条宽度（以像素为单位）</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Cursor Offset X:</t>
   </si>
   <si>
     <t>光标偏移X：左负右正</t>
   </si>
   <si>
+    <t>+0</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Cursor Offset Y:</t>
   </si>
   <si>
     <t>光标偏移Y：上负下正</t>
   </si>
   <si>
+    <t>+6</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Label Font Size:</t>
   </si>
   <si>
     <t>标签字体大小</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Label Offset X:</t>
   </si>
   <si>
@@ -4401,6 +4471,9 @@
   </si>
   <si>
     <t>标签偏移Y：上负下正</t>
+  </si>
+  <si>
+    <t>+4</t>
   </si>
   <si>
     <t xml:space="preserve">  Timing Bar Color 1:
@@ -4411,10 +4484,538 @@
 时间条颜色2</t>
   </si>
   <si>
+    <t>6
+14</t>
+  </si>
+  <si>
     <t>Vocabulary Settings</t>
   </si>
   <si>
-    <t>词汇设置（做时再翻译）</t>
+    <t>词汇设置</t>
+  </si>
+  <si>
+    <t>Text Alignment:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">文本对齐方式：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要VisuMZ_1_MessageCore！  -否则，默认为左对齐。</t>
+    </r>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>Message Settings:</t>
+  </si>
+  <si>
+    <t>消息设置</t>
+  </si>
+  <si>
+    <t>Button Mash Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按钮连打 文本：
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更改出现在QTE窗口中的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>按下 \C[27]&lt;OK Button&gt;\C[0] 或 \C[27]点击屏幕\C[0] [0]
+尽你所能，次数越多越好！</t>
+  </si>
+  <si>
+    <t>Press \C[27]&lt;OK Button&gt;\C[0] or \C[27]Screen Tap\C[0]
+as many times as you can!</t>
+  </si>
+  <si>
+    <t>Button Sequence Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按钮序列 文本：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-更改出现在QTE窗口中的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支持文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>在时间用完之前按下上面的 \C[27]按钮序列\c[0] ！</t>
+  </si>
+  <si>
+    <t>Press the above \C[27]Button Sequence\c[0] before time runs out!</t>
+  </si>
+  <si>
+    <t>Direction Struggle:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方向挣扎 文本：
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更改出现在QTE窗口中的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>反复点击 \C[27]&lt;Left Button&gt;\c[0] \C[27]&lt;Right Button&gt;\c[0] \C[27]&lt;Up Button&gt;\c[0] \C[27]&lt;Down Button&gt;\c[0] 按钮
+以填充上面的计量器！</t>
+  </si>
+  <si>
+    <t>Cycle through \C[27]&lt;Left Button&gt;\c[0] \C[27]&lt;Right Button&gt;\c[0] \C[27]&lt;Up Button&gt;\c[0] \C[27]&lt;Down Button&gt;\c[0] buttons
+repeatedly to fill the above gauge!</t>
+  </si>
+  <si>
+    <t>Fill Gauge Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>填充计量器 文本：
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更改出现在QTE窗口中的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>反复按下 \C[27]&lt;OK Button&gt;\C[0] 或 \C[27]点击屏幕\C[0]
+以填充上面的计量器！</t>
+  </si>
+  <si>
+    <t>Press \C[27]&lt;OK Button&gt;\C[0] or \C[27]Screen Tap\C[0]
+repeatedly to fill the above gauge!</t>
+  </si>
+  <si>
+    <t>Hold &amp; Release Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按住 &amp; 释放 文本：
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更改出现在QTE窗口中的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>按住 \C[27]&lt;OK Button&gt;\C[0] 或 \C[27]点击屏幕\C[0]
+直到上面的计量器快满了，再 \C[27]松开\c[0] ！</t>
+  </si>
+  <si>
+    <t>Hold \C[27]&lt;OK Button&gt;\C[0] or \C[27]Press Screen\C[0] until the
+above gauge is nearly full, then \C[27]release\c[0]!</t>
+  </si>
+  <si>
+    <t>Marcher Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Marcher 文本:（Page Up/Page Dow）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-更改出现在QTE窗口中的文本。
+-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>反复交替按下 \C[27]&lt;Page Up Button&gt;\c[0] 和 \C[27]&lt;Page Down Button&gt;\c[0] 按钮
+以填充上面的计量器！</t>
+  </si>
+  <si>
+    <t>Alternate between \C[27]&lt;Page Up Button&gt;\c[0] and \C[27]&lt;Page Down Button&gt;\c[0] buttons
+repeatedly to fill the above gauge!</t>
+  </si>
+  <si>
+    <t>Swapper Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Swapper 文本:（OK/Cancel）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-更改出现在QTE窗口中的文本。
+-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>反复交替按下 \C[27]&lt;OK Button&gt;\c[0] 和 \C[27]&lt;Cancel Button&gt;\c[0] 按钮
+以填充上面的计量器！</t>
+  </si>
+  <si>
+    <t>Alternate between \C[27]&lt;OK Button&gt;\c[0] and \C[27]&lt;Cancel Button&gt;\c[0] buttons
+repeatedly to fill the above gauge!</t>
+  </si>
+  <si>
+    <t>Timed Hit Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">定时点击 文本:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-更改出现在QTE窗口中的文本。
+-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>在正确的时间按下 \C[27]&lt;OK Button&gt;\C[0] 或 \C[27]点击屏幕\C[0] ！</t>
+  </si>
+  <si>
+    <t>Press \C[27]&lt;OK Button&gt;\C[0] or \C[27]Screen Tap\C[0]
+at the right time!</t>
+  </si>
+  <si>
+    <t>Timed Sequence Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">定时序列 文本：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-更改出现在QTE窗口中的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-支持文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>在正确的时间按下 \C[27]按钮序列\C[0] ！</t>
+  </si>
+  <si>
+    <t>Press the \C[27]Button Sequence\C[0] at the right time!</t>
+  </si>
+  <si>
+    <t>Timing Bar Text:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">时间槽 文本:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-更改出现在QTE窗口中的文本。
+-支持文本代码。
+-留空表示无窗口。</t>
+    </r>
+  </si>
+  <si>
+    <t>按下 \C[27]&lt;OK Button&gt;\C[0] 或 \C[27]点击屏幕\C[0] 停止光标！</t>
+  </si>
+  <si>
+    <t>Message Window:</t>
+  </si>
+  <si>
+    <t>消息窗口</t>
+  </si>
+  <si>
+    <t>Background Type:</t>
+  </si>
+  <si>
+    <t>背景类型</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>JS: X, Y, W, H:</t>
+  </si>
+  <si>
+    <t>用于确定此窗口的位置和尺寸的代码。</t>
   </si>
 </sst>
 </file>
@@ -4634,14 +5235,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4671,7 +5272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4681,6 +5282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5083,7 +5690,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5107,16 +5714,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5125,89 +5732,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5280,6 +5887,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5289,20 +5911,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -5562,20 +6187,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5588,7 +6213,133 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11106150" y="5667375"/>
+          <a:off x="12144375" y="6705600"/>
+          <a:ext cx="2066925" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>615950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="7007225"/>
+          <a:ext cx="2971800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>612775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>565785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="4464050"/>
+          <a:ext cx="5372100" cy="588010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="8448675"/>
           <a:ext cx="3867150" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5604,16 +6355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3238500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2771775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>574675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5623,14 +6374,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="6219825"/>
+          <a:off x="8969375" y="8963025"/>
           <a:ext cx="2790825" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5647,33 +6398,243 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8963025" y="5438775"/>
-          <a:ext cx="2066925" cy="1666875"/>
+          <a:off x="9020175" y="1447800"/>
+          <a:ext cx="6315075" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>608330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="5108575"/>
+          <a:ext cx="5600700" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>606425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982075" y="6362700"/>
+          <a:ext cx="5286375" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="5730875"/>
+          <a:ext cx="3381375" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="3251200"/>
+          <a:ext cx="3790950" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>587375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="3876675"/>
+          <a:ext cx="3790950" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5693,13 +6654,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5718,7 +6679,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="752475"/>
+          <a:off x="24222075" y="752475"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5730,13 +6691,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5755,7 +6716,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="752475"/>
+          <a:off x="24222075" y="752475"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6057,8 +7018,8 @@
   <sheetPr/>
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6068,7 +7029,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="2:2">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6138,37 +7099,37 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="2:2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" ht="27" spans="2:2">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="2:2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:2">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6188,37 +7149,37 @@
       </c>
     </row>
     <row r="27" ht="27" spans="2:2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" ht="27" spans="2:2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" ht="27" spans="2:2">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:2">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" ht="27" spans="2:2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6228,12 +7189,12 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="2:2">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6243,27 +7204,27 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" ht="27" spans="2:2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" ht="27" spans="2:2">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" ht="27" spans="2:2">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6273,47 +7234,47 @@
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:2">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" ht="54" spans="2:2">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" ht="40.5" spans="2:2">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" ht="40.5" spans="2:2">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="42" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" ht="40.5" spans="2:2">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="2:2">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" ht="27" spans="2:2">
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="42" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6330,7 +7291,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6346,10 +7307,10 @@
       </c>
     </row>
     <row r="2" ht="52.5" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
@@ -6357,10 +7318,10 @@
       </c>
     </row>
     <row r="3" ht="52.5" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
@@ -6368,10 +7329,10 @@
       </c>
     </row>
     <row r="4" ht="52.5" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
@@ -6379,10 +7340,10 @@
       </c>
     </row>
     <row r="5" ht="51" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
@@ -6390,10 +7351,10 @@
       </c>
     </row>
     <row r="6" ht="51" spans="1:3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
@@ -6401,7 +7362,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="38" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6409,7 +7370,7 @@
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
@@ -6420,7 +7381,7 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
@@ -6440,8 +7401,8 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6459,15 +7420,15 @@
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
@@ -6483,42 +7444,42 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="36" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="36" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6531,98 +7492,98 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="35" t="s">
         <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" ht="25.5" spans="1:2">
-      <c r="A14" s="27" t="s">
+    <row r="14" ht="50" customHeight="1" spans="1:2">
+      <c r="A14" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="1:2">
-      <c r="A15" s="27" t="s">
+    <row r="15" ht="50" customHeight="1" spans="1:2">
+      <c r="A15" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" ht="25.5" spans="1:2">
-      <c r="A16" s="27" t="s">
+    <row r="16" ht="50" customHeight="1" spans="1:2">
+      <c r="A16" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" ht="25.5" spans="1:2">
-      <c r="A17" s="27" t="s">
+    <row r="17" ht="50" customHeight="1" spans="1:2">
+      <c r="A17" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="27" t="s">
+    <row r="18" ht="50" customHeight="1" spans="1:2">
+      <c r="A18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" ht="25.5" spans="1:2">
-      <c r="A19" s="27" t="s">
+    <row r="19" ht="50" customHeight="1" spans="1:2">
+      <c r="A19" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" ht="25.5" spans="1:2">
-      <c r="A20" s="27" t="s">
+    <row r="20" ht="50" customHeight="1" spans="1:2">
+      <c r="A20" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" ht="25.5" spans="1:2">
-      <c r="A21" s="27" t="s">
+    <row r="21" ht="50" customHeight="1" spans="1:2">
+      <c r="A21" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" ht="25.5" spans="1:2">
-      <c r="A22" s="27" t="s">
+    <row r="22" ht="50" customHeight="1" spans="1:2">
+      <c r="A22" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="27" t="s">
+    <row r="23" ht="50" customHeight="1" spans="1:2">
+      <c r="A23" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" ht="25.5" spans="1:2">
-      <c r="A24" s="30" t="s">
+    <row r="24" ht="50" customHeight="1" spans="1:2">
+      <c r="A24" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6638,18 +7599,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="65.875" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="110.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="90.625" customWidth="1"/>
+    <col min="5" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
@@ -6677,8 +7639,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="4:6">
       <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="18.75" spans="1:2">
       <c r="A5" s="3" t="s">
@@ -6752,7 +7716,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>136</v>
       </c>
@@ -6762,9 +7726,11 @@
       <c r="C14" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" ht="25.5" spans="1:4">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" ht="25.5" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>138</v>
       </c>
@@ -6774,9 +7740,9 @@
       <c r="C15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" ht="27" spans="1:4">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" ht="27" spans="1:6">
       <c r="A16" s="15" t="s">
         <v>141</v>
       </c>
@@ -6786,9 +7752,9 @@
       <c r="C16" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="17" t="s">
         <v>144</v>
       </c>
@@ -6798,9 +7764,11 @@
       <c r="C17" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>147</v>
       </c>
@@ -6810,9 +7778,11 @@
       <c r="C18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" ht="25.5" spans="1:4">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" ht="25.5" spans="1:6">
       <c r="A19" s="21" t="s">
         <v>149</v>
       </c>
@@ -6822,9 +7792,9 @@
       <c r="C19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" ht="27" spans="1:4">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" ht="27" spans="1:6">
       <c r="A20" s="22" t="s">
         <v>141</v>
       </c>
@@ -6834,9 +7804,9 @@
       <c r="C20" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="23" t="s">
         <v>144</v>
       </c>
@@ -6846,128 +7816,383 @@
       <c r="C21" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" ht="25.5" spans="1:6">
+      <c r="A22" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13" t="s">
+      <c r="C22" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="17" t="s">
+      <c r="B23" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B24" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" ht="25.5" spans="1:4">
-      <c r="A26" s="17" t="s">
+      <c r="C24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="B25" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C25" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="13" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B26" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" ht="25.5" spans="1:6">
+      <c r="A27" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="13" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" ht="27" spans="1:4">
-      <c r="A33" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="35" ht="18.75" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>177</v>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" ht="27" spans="1:6">
+      <c r="A34" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="36" ht="18.75" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" ht="27" spans="1:3">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" ht="51" spans="1:4">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" ht="39" spans="1:4">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" ht="51" spans="1:4">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" ht="51" spans="1:4">
+      <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" ht="51" spans="1:4">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" ht="49.5" spans="1:4">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" ht="49.5" spans="1:4">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" ht="49.5" spans="1:4">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" ht="39" spans="1:4">
+      <c r="A48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" ht="49.5" spans="1:3">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
